--- a/Public/template/template_jxb.xlsx
+++ b/Public/template/template_jxb.xlsx
@@ -15,14 +15,2024 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="区域">[1]基础信息!$I$2:$I$19</definedName>
+    <definedName name="区域">[1]中心名称!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sky</author>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>取人事资料</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>手工填名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>取人事资料</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据人事资料第一毕业时间和入职时间折算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>入职时间和本月最后一天时间段取天数除以</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>365</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加树童前年限，加英语</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>8</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>追加年限</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>入职时间和本月最后一天时间段取天数除以</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>365</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加树童前年限除以</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0.8
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>手工填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>函数根据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>M</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>列数据计算得出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按条件求和函数取老师确认收入表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>取各类的标准单价</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果是教务主任则等于</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，否则小学小时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>初中小时之和乘以标准单价</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果是教务主任等于</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，否则，小学标准收入乘以</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AG</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>列小学提成比例，加初中标准收入乘以</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AH</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>列初中提成比例</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表格依据一对一增值表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>教务奖励表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参考营业额提成表（这个表从教师营业额取数）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>跟正价同理，参照秒杀营业额及提成表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只有教务主任涉及计算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>合计公式</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>手工填，系统取人事资料相应的社保、公积金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>公式合计</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>手工填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">合计
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>手工填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据函数按</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AU</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数据为条件计算得出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月份为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据函数分别取老生续费表</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>157</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>行对应小学部的续费率小计，否则等于</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>60%,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>老师的取实际的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月份为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据函数分别取老生续费表</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>157</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>行对应初中部的续费率小计，否则等于</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>老师的取实际的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>列及小学或初中续费率取基础信息表里</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>至</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AQ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>区域内对应小表格的数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>手工填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据函数按</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数据为条件计算得出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>手工填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据函数按</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数据为条件计算得出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+AF6+Y6+V6+AB6+R6+AD6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是没用的取消，如函数不能正确返回值则显示</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>小学的基础上加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>8%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>函数取数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按函数只在每年</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>结算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>经营数据表的饱和率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>已确认，参考薪酬饱和率区间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>市场业绩总额，涉及月末在读奖励计算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上月正价在读</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本月正价在读</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在读数相减</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参考薪酬教务主任月末规模奖罚，规模变动负数不考虑</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">折因素
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>经营数据表新生缴费（缴费日期算起</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>天内还未进班且当月状态未进班的人数乘以基础信息表</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>J</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>列对应的金额，如跟实际情况不一致手工填金额那里算回来</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不涉及计算，之前留了，余经理为了保留格式大致一致，所以没删</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按函数取数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Sky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>手工填</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>区域</t>
   </si>
@@ -60,9 +2070,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
     <t>入职时间</t>
   </si>
   <si>
@@ -72,6 +2079,9 @@
     <t>工作年限（月）</t>
   </si>
   <si>
+    <t>毕业工作年限</t>
+  </si>
+  <si>
     <t>应出勤天数</t>
   </si>
   <si>
@@ -123,30 +2133,21 @@
     <t>阿米巴分成</t>
   </si>
   <si>
-    <t>一对一补课增值奖励分成</t>
-  </si>
-  <si>
-    <t>教务奖励分成(详见奖励台帐)</t>
-  </si>
-  <si>
-    <t>小学营业额</t>
-  </si>
-  <si>
-    <t>初中营业额</t>
-  </si>
-  <si>
-    <t>正价学生续费营业额分成</t>
-  </si>
-  <si>
-    <t>秒杀转化营业额结算分成</t>
+    <t>一对一补课增值奖励</t>
+  </si>
+  <si>
+    <t>教务奖励(详见奖励台帐)</t>
+  </si>
+  <si>
+    <t>正价学生续费营业额提成</t>
+  </si>
+  <si>
+    <t>秒杀转化率结算绩效</t>
   </si>
   <si>
     <t>教学组长及主任</t>
   </si>
   <si>
-    <t>教学组长</t>
-  </si>
-  <si>
     <t>教学主任</t>
   </si>
   <si>
@@ -204,55 +2205,43 @@
     <t>得分</t>
   </si>
   <si>
-    <t>团队确认收入</t>
-  </si>
-  <si>
-    <t>任主任/组长岗位开始日期</t>
-  </si>
-  <si>
-    <t>任主任/组长任岗年限</t>
-  </si>
-  <si>
-    <t>团队收入提成比</t>
-  </si>
-  <si>
-    <t>团队阿米巴分成</t>
-  </si>
-  <si>
-    <t>组员人数分成</t>
-  </si>
-  <si>
-    <t>组长爱外教上线奖励分成</t>
-  </si>
-  <si>
-    <t>部门阿米巴平均值分成</t>
+    <t>续费营业额</t>
+  </si>
+  <si>
+    <t>季度考核人头</t>
+  </si>
+  <si>
+    <t>部门阿米巴平均值</t>
   </si>
   <si>
     <t>饱和率</t>
   </si>
   <si>
-    <t>饱和率考核分成</t>
-  </si>
-  <si>
-    <t>上月末正价在读数</t>
-  </si>
-  <si>
-    <t>月末正价在读数</t>
-  </si>
-  <si>
-    <t>正价在读规模变化</t>
-  </si>
-  <si>
-    <t>月末正价在读数奖励分成</t>
-  </si>
-  <si>
-    <t>新生未进班班</t>
-  </si>
-  <si>
-    <t>团队续费率人头考核分成</t>
-  </si>
-  <si>
-    <t>续费率人头扣罚分成</t>
+    <t>饱和率考核</t>
+  </si>
+  <si>
+    <t>本月营收金额</t>
+  </si>
+  <si>
+    <t>上月末在读数</t>
+  </si>
+  <si>
+    <t>月末在读数</t>
+  </si>
+  <si>
+    <t>在读规模变化</t>
+  </si>
+  <si>
+    <t>月末在读数奖励</t>
+  </si>
+  <si>
+    <t>新生未进班班考核金额</t>
+  </si>
+  <si>
+    <t>团队续费率考核</t>
+  </si>
+  <si>
+    <t>个人精读续费率人头扣罚</t>
   </si>
   <si>
     <t>赠送课及基地招生课超小时定额提成</t>
@@ -276,7 +2265,7 @@
     </r>
   </si>
   <si>
-    <t>流失及退费绩效结算</t>
+    <t>退费绩效结算</t>
   </si>
   <si>
     <t>考勤</t>
@@ -297,18 +2286,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]mmm/yy;@"/>
-    <numFmt numFmtId="181" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.0%"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,12 +2307,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -341,54 +2324,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +2345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +2367,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -433,9 +2383,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,6 +2423,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,18 +2444,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -488,14 +2472,26 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,7 +2500,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +2602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,19 +2620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,13 +2632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,55 +2644,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,61 +2716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,6 +2817,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -824,15 +2859,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -843,7 +2869,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,6 +2881,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,288 +2914,348 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="5" borderId="3" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="2" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="7" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="7" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="7" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="6" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="3" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="5" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="5" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="3" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1210,9 +3311,9 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
     <cellStyle name="常规 14" xfId="50"/>
-    <cellStyle name="常规 2" xfId="51"/>
+    <cellStyle name="常规_STL招生工资试算表2012-4.10 2" xfId="51"/>
     <cellStyle name="常规_3 2" xfId="52"/>
-    <cellStyle name="常规_STL招生工资试算表2012-4.10 2" xfId="53"/>
+    <cellStyle name="常规 2" xfId="53"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1227,38 +3328,36 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="工资表编制细则"/>
-      <sheetName val="工资汇总实发表"/>
-      <sheetName val="营业额提成结算"/>
-      <sheetName val="秒杀营业额提成"/>
-      <sheetName val="秒杀转化率"/>
+      <sheetName val="封面"/>
+      <sheetName val="基础信息"/>
+      <sheetName val="中心名称"/>
+      <sheetName val="汇总表"/>
+      <sheetName val="1月"/>
       <sheetName val="老师续费率"/>
       <sheetName val="续费率人头考核"/>
-      <sheetName val="9月"/>
-      <sheetName val="8月"/>
-      <sheetName val="7月"/>
-      <sheetName val="6月"/>
-      <sheetName val="5月"/>
-      <sheetName val="4月"/>
-      <sheetName val="3月"/>
-      <sheetName val="2月"/>
-      <sheetName val="1月"/>
-      <sheetName val="基础信息"/>
+      <sheetName val="营业额提成结算"/>
+      <sheetName val="秒杀转化率"/>
+      <sheetName val="秒杀营业额提成"/>
       <sheetName val="人事资料"/>
       <sheetName val="考勤明细"/>
       <sheetName val="社保"/>
       <sheetName val="转化营业额"/>
       <sheetName val="教师营业额"/>
       <sheetName val="教师确认收入"/>
+      <sheetName val="续费率"/>
       <sheetName val="转化率"/>
-      <sheetName val="续费率"/>
       <sheetName val="教务奖励台账"/>
       <sheetName val="一对一增值补课登记台账"/>
-      <sheetName val="班级明细"/>
-      <sheetName val="中心名称"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>广州天河</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -1279,14 +3378,6 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1579,742 +3670,692 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BW5"/>
+  <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BW3" sqref="BW3"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BQ3" sqref="BQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:75">
+    <row r="1" ht="22.5" spans="1:69">
       <c r="A1" s="1" t="str">
-        <f>"2018年"&amp;B6&amp;C6&amp;D6&amp;E6&amp;"工资表"</f>
-        <v>2018年工资表</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
+        <f>"2019年"&amp;B6&amp;"月"&amp;C6&amp;D6&amp;E6&amp;"工资表"</f>
+        <v>2019年月工资表</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
     </row>
-    <row r="2" spans="1:75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:69">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="str">
+        <f>[1]封面!C2</f>
+        <v>广州天河</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="27" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="53"/>
     </row>
-    <row r="3" spans="1:75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="3" spans="1:69">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>7</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>8</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>9</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>10</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>11</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>12</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="6">
         <v>13</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="6">
         <v>14</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>15</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="6">
         <v>16</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="6">
         <v>17</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="6">
         <v>18</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="6">
         <v>19</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="6">
         <v>20</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="6">
         <v>21</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="6">
         <v>22</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="6">
         <v>23</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="6">
         <v>24</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="6">
         <v>25</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="6">
         <v>26</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="6">
         <v>27</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="6">
         <v>28</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="6">
         <v>29</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="6">
         <v>30</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="6">
         <v>31</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" s="6">
         <v>32</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="6">
         <v>33</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="6">
         <v>34</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="6">
         <v>35</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AK3" s="6">
         <v>36</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AL3" s="6">
         <v>37</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="6">
         <v>38</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AN3" s="6">
         <v>39</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AO3" s="6">
         <v>40</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AP3" s="6">
         <v>41</v>
       </c>
-      <c r="AQ3" s="5">
+      <c r="AQ3" s="6">
         <v>42</v>
       </c>
-      <c r="AR3" s="5">
+      <c r="AR3" s="6">
         <v>43</v>
       </c>
-      <c r="AS3" s="5">
+      <c r="AS3" s="6">
         <v>44</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="AT3" s="6">
         <v>45</v>
       </c>
-      <c r="AU3" s="5">
+      <c r="AU3" s="6">
         <v>46</v>
       </c>
-      <c r="AV3" s="5">
+      <c r="AV3" s="6">
         <v>47</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="AW3" s="6">
         <v>48</v>
       </c>
-      <c r="AX3" s="5">
+      <c r="AX3" s="6">
         <v>49</v>
       </c>
-      <c r="AY3" s="5">
+      <c r="AY3" s="6">
         <v>50</v>
       </c>
-      <c r="AZ3" s="5">
+      <c r="AZ3" s="6">
         <v>51</v>
       </c>
-      <c r="BA3" s="5">
+      <c r="BA3" s="6">
         <v>52</v>
       </c>
-      <c r="BB3" s="5">
+      <c r="BB3" s="6">
         <v>53</v>
       </c>
-      <c r="BC3" s="5">
+      <c r="BC3" s="6">
         <v>54</v>
       </c>
-      <c r="BD3" s="5">
+      <c r="BD3" s="6">
         <v>55</v>
       </c>
-      <c r="BE3" s="5">
+      <c r="BE3" s="6">
         <v>56</v>
       </c>
-      <c r="BF3" s="5">
+      <c r="BF3" s="6">
         <v>57</v>
       </c>
-      <c r="BG3" s="5">
+      <c r="BG3" s="6">
         <v>58</v>
       </c>
-      <c r="BH3" s="5">
+      <c r="BH3" s="6">
         <v>59</v>
       </c>
-      <c r="BI3" s="5">
+      <c r="BI3" s="6">
         <v>60</v>
       </c>
-      <c r="BJ3" s="5">
+      <c r="BJ3" s="6">
         <v>61</v>
       </c>
-      <c r="BK3" s="5">
+      <c r="BK3" s="6">
         <v>62</v>
       </c>
-      <c r="BL3" s="5">
+      <c r="BL3" s="6">
         <v>63</v>
       </c>
-      <c r="BM3" s="5">
+      <c r="BM3" s="6">
         <v>64</v>
       </c>
-      <c r="BN3" s="5">
+      <c r="BN3" s="6">
         <v>65</v>
       </c>
-      <c r="BO3" s="5">
+      <c r="BO3" s="6">
         <v>66</v>
       </c>
-      <c r="BP3" s="5">
+      <c r="BP3" s="6">
         <v>67</v>
       </c>
-      <c r="BQ3" s="5">
+      <c r="BQ3" s="6">
         <v>68</v>
       </c>
-      <c r="BR3" s="5">
-        <v>69</v>
-      </c>
-      <c r="BS3" s="5">
-        <v>70</v>
-      </c>
-      <c r="BT3" s="5">
-        <v>71</v>
-      </c>
-      <c r="BU3" s="5">
-        <v>72</v>
-      </c>
-      <c r="BV3" s="5">
-        <v>73</v>
-      </c>
-      <c r="BW3" s="5">
-        <v>74</v>
-      </c>
     </row>
-    <row r="4" spans="1:75">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:69">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="21" t="s">
+      <c r="U4" s="27"/>
+      <c r="V4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="21" t="s">
+      <c r="W4" s="29"/>
+      <c r="X4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="9" t="s">
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="21" t="s">
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="21" t="s">
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="10" t="s">
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AG4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AH4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AI4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AJ4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AK4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AL4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AM4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AN4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AO4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AQ4" s="21" t="s">
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="21" t="s">
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="21" t="s">
+      <c r="BJ4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="21" t="s">
+      <c r="BK4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
-      <c r="BL4" s="22"/>
-      <c r="BM4" s="22"/>
-      <c r="BN4" s="23"/>
-      <c r="BO4" s="24" t="s">
+      <c r="BL4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="BP4" s="24" t="s">
+      <c r="BM4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="BQ4" s="30" t="s">
+      <c r="BN4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="BR4" s="31" t="s">
+      <c r="BO4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="BS4" s="31" t="s">
+      <c r="BP4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="BT4" s="24" t="s">
+      <c r="BQ4" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="BU4" s="24" t="s">
+    </row>
+    <row r="5" ht="45" spans="1:69">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BV4" s="24" t="s">
+      <c r="U5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="BW4" s="10" t="s">
+      <c r="V5" s="25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" ht="45" spans="1:75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="9" t="s">
+      <c r="W5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="X5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="Y5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="Z5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="AA5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="AC5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AP5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AQ5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AC5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="9" t="s">
+      <c r="AR5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AS5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AT5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AU5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AV5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AW5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AW5" s="9" t="s">
+      <c r="AX5" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AY5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AY5" s="9" t="s">
+      <c r="AZ5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AZ5" s="9" t="s">
+      <c r="BA5" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="BA5" s="9" t="s">
+      <c r="BB5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="BB5" s="9" t="s">
+      <c r="BC5" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="BC5" s="9" t="s">
+      <c r="BD5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="BD5" s="9" t="s">
+      <c r="BE5" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="BE5" s="9" t="s">
+      <c r="BF5" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="BF5" s="10" t="s">
+      <c r="BG5" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="BG5" s="10" t="s">
+      <c r="BH5" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="BH5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="BI5" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL5" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM5" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN5" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="15"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="52"/>
+      <c r="BM5" s="57"/>
+      <c r="BN5" s="58"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="59"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C2" name="区域1" securityDescriptor=""/>
-    <protectedRange sqref="AP1:AP2" name="区域17" securityDescriptor=""/>
+    <protectedRange sqref="BB1:BH5" name="区域6" securityDescriptor=""/>
+    <protectedRange sqref="Z1:Z5 AB1:AB5" name="区域4" securityDescriptor=""/>
+    <protectedRange sqref="N1:P5" name="区域2" securityDescriptor=""/>
+    <protectedRange sqref="I1:I5" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="R1:T5" name="区域3" securityDescriptor=""/>
+    <protectedRange sqref="AT1:AV5 AY1:AY5 AR1:AR5" name="区域5" securityDescriptor=""/>
+    <protectedRange sqref="BK1:BL5 BO1:BO5 BQ1:BQ5" name="区域7" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="49">
+  <mergeCells count="47">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:BF4"/>
-    <mergeCell ref="BG4:BN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -2343,17 +4384,15 @@
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
@@ -2363,6 +4402,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
